--- a/MCU 계산기/Artery MCU Timer 계산기.xlsx
+++ b/MCU 계산기/Artery MCU Timer 계산기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\Artery\MCU 계산기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9046F-6858-479E-A5EF-BAF7BE0EFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248926A3-41ED-4170-9DF3-F19D9E9D4107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2055" windowWidth="29040" windowHeight="15720" xr2:uid="{FF512ACD-DBAD-47A5-9DFB-B28741C82C85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>f = 1/t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,46 @@
   </si>
   <si>
     <t>Freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5옥타브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFE353B-CBD0-42C2-BE4E-39AA7A6FA0EE}">
-  <dimension ref="E13:O20"/>
+  <dimension ref="E10:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -521,7 +561,45 @@
     <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>1046.502</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11">
+        <v>1910</v>
+      </c>
+      <c r="S11">
+        <f>R11/2</f>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="12" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>1702</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S18" si="0">R12/2</f>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>0</v>
       </c>
@@ -543,8 +621,18 @@
       <c r="O13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <v>1516</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="5:19" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>2</v>
       </c>
@@ -557,35 +645,77 @@
       <c r="J14" s="1"/>
       <c r="K14">
         <f>1/L14</f>
-        <v>1.7990625E-4</v>
+        <v>9.5599999999999993E-4</v>
       </c>
       <c r="L14">
         <f>M14/((N14+1)*(O14+1))</f>
-        <v>5558.4505819002952</v>
+        <v>1046.0251046025105</v>
       </c>
       <c r="M14">
         <v>288000000</v>
       </c>
       <c r="N14">
-        <f>16*6+4</f>
-        <v>100</v>
+        <v>287</v>
       </c>
       <c r="O14">
-        <f>16*16*2</f>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.3">
+        <v>955</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14">
+        <v>1431</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>715.5</v>
+      </c>
+    </row>
+    <row r="15" spans="5:19" x14ac:dyDescent="0.3">
       <c r="N15" t="str">
         <f>DEC2HEX(N14)</f>
-        <v>64</v>
+        <v>11F</v>
       </c>
       <c r="O15" t="str">
         <f>DEC2HEX(O14)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+        <v>3BB</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15">
+        <v>1276</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="Q16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>1135</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="Q17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17">
+        <v>1012</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>1</v>
       </c>
@@ -604,8 +734,18 @@
       <c r="O18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>955</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>477.5</v>
+      </c>
+    </row>
+    <row r="19" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>2</v>
       </c>
@@ -634,7 +774,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:19" x14ac:dyDescent="0.3">
       <c r="N20" t="str">
         <f>DEC2HEX(N19)</f>
         <v>299</v>
